--- a/natmiOut/OldD7/LR-pairs_lrc2p/Sfrp1-Fzd6.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Sfrp1-Fzd6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Fzd6</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>55.4044130515662</v>
+        <v>0.217473</v>
       </c>
       <c r="H2">
-        <v>55.4044130515662</v>
+        <v>0.652419</v>
       </c>
       <c r="I2">
-        <v>0.9902657766416967</v>
+        <v>0.003819775075312922</v>
       </c>
       <c r="J2">
-        <v>0.9902657766416967</v>
+        <v>0.003819775075312921</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.1832502462551</v>
+        <v>12.415956</v>
       </c>
       <c r="N2">
-        <v>12.1832502462551</v>
+        <v>37.247868</v>
       </c>
       <c r="O2">
-        <v>0.8770159060641225</v>
+        <v>0.8598042313376485</v>
       </c>
       <c r="P2">
-        <v>0.8770159060641225</v>
+        <v>0.8598042313376485</v>
       </c>
       <c r="Q2">
-        <v>675.0058289541132</v>
+        <v>2.700135199188</v>
       </c>
       <c r="R2">
-        <v>675.0058289541132</v>
+        <v>24.301216792692</v>
       </c>
       <c r="S2">
-        <v>0.8684788373457095</v>
+        <v>0.003284258772512135</v>
       </c>
       <c r="T2">
-        <v>0.8684788373457095</v>
+        <v>0.003284258772512135</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,123 +581,123 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>55.4044130515662</v>
+        <v>0.217473</v>
       </c>
       <c r="H3">
-        <v>55.4044130515662</v>
+        <v>0.652419</v>
       </c>
       <c r="I3">
-        <v>0.9902657766416967</v>
+        <v>0.003819775075312922</v>
       </c>
       <c r="J3">
-        <v>0.9902657766416967</v>
+        <v>0.003819775075312921</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.70845931341659</v>
+        <v>1.745879666666666</v>
       </c>
       <c r="N3">
-        <v>1.70845931341659</v>
+        <v>5.237639</v>
       </c>
       <c r="O3">
-        <v>0.1229840939358775</v>
+        <v>0.1209020654395331</v>
       </c>
       <c r="P3">
-        <v>0.1229840939358775</v>
+        <v>0.1209020654395331</v>
       </c>
       <c r="Q3">
-        <v>94.65618548232796</v>
+        <v>0.3796816887489999</v>
       </c>
       <c r="R3">
-        <v>94.65618548232796</v>
+        <v>3.417135198741</v>
       </c>
       <c r="S3">
-        <v>0.1217869392959871</v>
+        <v>0.0004618186961197803</v>
       </c>
       <c r="T3">
-        <v>0.1217869392959871</v>
+        <v>0.0004618186961197802</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.544620388183706</v>
+        <v>0.217473</v>
       </c>
       <c r="H4">
-        <v>0.544620388183706</v>
+        <v>0.652419</v>
       </c>
       <c r="I4">
-        <v>0.009734223358303299</v>
+        <v>0.003819775075312922</v>
       </c>
       <c r="J4">
-        <v>0.009734223358303299</v>
+        <v>0.003819775075312921</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>12.1832502462551</v>
+        <v>0.2786096666666666</v>
       </c>
       <c r="N4">
-        <v>12.1832502462551</v>
+        <v>0.8358289999999999</v>
       </c>
       <c r="O4">
-        <v>0.8770159060641225</v>
+        <v>0.01929370322281843</v>
       </c>
       <c r="P4">
-        <v>0.8770159060641225</v>
+        <v>0.01929370322281843</v>
       </c>
       <c r="Q4">
-        <v>6.635246478454683</v>
+        <v>0.060590080039</v>
       </c>
       <c r="R4">
-        <v>6.635246478454683</v>
+        <v>0.5453107203509999</v>
       </c>
       <c r="S4">
-        <v>0.008537068718412913</v>
+        <v>7.369760668100643E-05</v>
       </c>
       <c r="T4">
-        <v>0.008537068718412913</v>
+        <v>7.369760668100641E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,371 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.544620388183706</v>
+        <v>55.43187966666667</v>
       </c>
       <c r="H5">
-        <v>0.544620388183706</v>
+        <v>166.295639</v>
       </c>
       <c r="I5">
-        <v>0.009734223358303299</v>
+        <v>0.9736257481548445</v>
       </c>
       <c r="J5">
-        <v>0.009734223358303299</v>
+        <v>0.9736257481548444</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.70845931341659</v>
+        <v>12.415956</v>
       </c>
       <c r="N5">
-        <v>1.70845931341659</v>
+        <v>37.247868</v>
       </c>
       <c r="O5">
-        <v>0.1229840939358775</v>
+        <v>0.8598042313376485</v>
       </c>
       <c r="P5">
-        <v>0.1229840939358775</v>
+        <v>0.8598042313376485</v>
       </c>
       <c r="Q5">
-        <v>0.930461774469011</v>
+        <v>688.239778938628</v>
       </c>
       <c r="R5">
-        <v>0.930461774469011</v>
+        <v>6194.158010447652</v>
       </c>
       <c r="S5">
-        <v>0.001197154639890385</v>
+        <v>0.837127538002819</v>
       </c>
       <c r="T5">
-        <v>0.001197154639890385</v>
+        <v>0.8371275380028189</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>55.43187966666667</v>
+      </c>
+      <c r="H6">
+        <v>166.295639</v>
+      </c>
+      <c r="I6">
+        <v>0.9736257481548445</v>
+      </c>
+      <c r="J6">
+        <v>0.9736257481548444</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1.745879666666666</v>
+      </c>
+      <c r="N6">
+        <v>5.237639</v>
+      </c>
+      <c r="O6">
+        <v>0.1209020654395331</v>
+      </c>
+      <c r="P6">
+        <v>0.1209020654395331</v>
+      </c>
+      <c r="Q6">
+        <v>96.77739159514677</v>
+      </c>
+      <c r="R6">
+        <v>870.9965243563209</v>
+      </c>
+      <c r="S6">
+        <v>0.1177133639170313</v>
+      </c>
+      <c r="T6">
+        <v>0.1177133639170313</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>55.43187966666667</v>
+      </c>
+      <c r="H7">
+        <v>166.295639</v>
+      </c>
+      <c r="I7">
+        <v>0.9736257481548445</v>
+      </c>
+      <c r="J7">
+        <v>0.9736257481548444</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.2786096666666666</v>
+      </c>
+      <c r="N7">
+        <v>0.8358289999999999</v>
+      </c>
+      <c r="O7">
+        <v>0.01929370322281843</v>
+      </c>
+      <c r="P7">
+        <v>0.01929370322281843</v>
+      </c>
+      <c r="Q7">
+        <v>15.44385751663678</v>
+      </c>
+      <c r="R7">
+        <v>138.994717649731</v>
+      </c>
+      <c r="S7">
+        <v>0.01878484623499412</v>
+      </c>
+      <c r="T7">
+        <v>0.01878484623499413</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.284104333333334</v>
+      </c>
+      <c r="H8">
+        <v>3.852313000000001</v>
+      </c>
+      <c r="I8">
+        <v>0.02255447676984262</v>
+      </c>
+      <c r="J8">
+        <v>0.02255447676984261</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>12.415956</v>
+      </c>
+      <c r="N8">
+        <v>37.247868</v>
+      </c>
+      <c r="O8">
+        <v>0.8598042313376485</v>
+      </c>
+      <c r="P8">
+        <v>0.8598042313376485</v>
+      </c>
+      <c r="Q8">
+        <v>15.943382902076</v>
+      </c>
+      <c r="R8">
+        <v>143.490446118684</v>
+      </c>
+      <c r="S8">
+        <v>0.01939243456231738</v>
+      </c>
+      <c r="T8">
+        <v>0.01939243456231738</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.284104333333334</v>
+      </c>
+      <c r="H9">
+        <v>3.852313000000001</v>
+      </c>
+      <c r="I9">
+        <v>0.02255447676984262</v>
+      </c>
+      <c r="J9">
+        <v>0.02255447676984261</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.745879666666666</v>
+      </c>
+      <c r="N9">
+        <v>5.237639</v>
+      </c>
+      <c r="O9">
+        <v>0.1209020654395331</v>
+      </c>
+      <c r="P9">
+        <v>0.1209020654395331</v>
+      </c>
+      <c r="Q9">
+        <v>2.241891645445222</v>
+      </c>
+      <c r="R9">
+        <v>20.177024809007</v>
+      </c>
+      <c r="S9">
+        <v>0.002726882826381941</v>
+      </c>
+      <c r="T9">
+        <v>0.00272688282638194</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.284104333333334</v>
+      </c>
+      <c r="H10">
+        <v>3.852313000000001</v>
+      </c>
+      <c r="I10">
+        <v>0.02255447676984262</v>
+      </c>
+      <c r="J10">
+        <v>0.02255447676984261</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.2786096666666666</v>
+      </c>
+      <c r="N10">
+        <v>0.8358289999999999</v>
+      </c>
+      <c r="O10">
+        <v>0.01929370322281843</v>
+      </c>
+      <c r="P10">
+        <v>0.01929370322281843</v>
+      </c>
+      <c r="Q10">
+        <v>0.3577638802752223</v>
+      </c>
+      <c r="R10">
+        <v>3.219874922477</v>
+      </c>
+      <c r="S10">
+        <v>0.0004351593811432958</v>
+      </c>
+      <c r="T10">
+        <v>0.0004351593811432958</v>
       </c>
     </row>
   </sheetData>
